--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/IACET/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA76A8A0-A981-4F79-88E2-3B82F6A6181F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,21 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>MailFolder</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>GmailCredentials</t>
+  </si>
+  <si>
+    <t>PdfFolderPath</t>
   </si>
 </sst>
 </file>
@@ -212,10 +227,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,16 +552,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +609,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +619,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -615,11 +630,31 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1623,12 +1658,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1700,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1825,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2782,14 +2817,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.90625" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="60.36328125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\UiPath\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441CB9A8-4EF3-4BB5-AF6F-328B495470BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t>FolderName</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>ProjectSubjectFolder</t>
+  </si>
+  <si>
+    <t>IACET</t>
+  </si>
+  <si>
+    <t>OtherSubjectFolder</t>
+  </si>
+  <si>
+    <t>Other mails</t>
+  </si>
+  <si>
+    <t>ProjectSubject</t>
+  </si>
+  <si>
+    <t>IACET client Details</t>
   </si>
 </sst>
 </file>
@@ -212,10 +236,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,16 +561,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -594,7 +618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -604,7 +628,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -615,10 +639,38 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1623,12 +1675,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1717,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1842,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2782,14 +2834,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/IACET/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA76A8A0-A981-4F79-88E2-3B82F6A6181F}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F28985-A05C-4F4F-B1ED-EF49420EF464}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -98,83 +95,100 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>MailFolder</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>GmailCredentials</t>
+  </si>
+  <si>
+    <t>PdfFolderPath</t>
+  </si>
+  <si>
+    <t>IACET</t>
+  </si>
+  <si>
+    <t>IacetQueue</t>
+  </si>
+  <si>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>IACET Project</t>
+  </si>
+  <si>
+    <t>imap.gmail.com</t>
+  </si>
+  <si>
+    <t>GmailAccount</t>
+  </si>
+  <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
-  </si>
-  <si>
-    <t>MailFolder</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>GmailCredentials</t>
-  </si>
-  <si>
-    <t>PdfFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\Temp\</t>
   </si>
 </sst>
 </file>
@@ -251,6 +265,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,7 +575,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -600,22 +622,24 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -623,36 +647,51 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
+      <c r="B5" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>993</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,18 +1747,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1743,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1765,7 +1804,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1776,7 +1815,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1787,53 +1826,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2835,7 +2874,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeve\OneDrive\Documents\UiPath\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C58BACD-ED0D-4BB4-9DD2-DCD61077CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -82,84 +82,136 @@
   </si>
   <si>
     <t>System exception.</t>
-  </si>
-  <si>
-    <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
-    <phoneticPr fontId="2"/>
+    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction succesful.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
+  </si>
+  <si>
+    <t>Static part of logging message. Calling Get Transaction Data.</t>
+  </si>
+  <si>
+    <t>OrchestratorAssetFolder</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueFolder</t>
+  </si>
+  <si>
+    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
+  </si>
+  <si>
+    <t>MaxConsecutiveSystemExceptions</t>
+  </si>
+  <si>
+    <t>ExceptionMessage_ConsecutiveErrors</t>
+  </si>
+  <si>
+    <t>RetryNumberGetTransactionItem</t>
+  </si>
+  <si>
+    <t>RetryNumberSetTransactionStatus</t>
+  </si>
+  <si>
+    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
+  </si>
+  <si>
+    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
+  </si>
+  <si>
+    <t>ShouldMarkJobAsFaulted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
+  </si>
+  <si>
+    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
+  </si>
+  <si>
+    <t>Shared</t>
   </si>
   <si>
     <t>OrchestratorQueueName</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Must be 0 if working with Orchestrator queues. If &gt; 0, the robot will retry the same transaction which failed with a system exception. Must be an integer value.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction succesful.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with business exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Processed Transaction failed with application exception.</t>
-  </si>
-  <si>
-    <t>Static part of logging message. Calling Get Transaction Data.</t>
-  </si>
-  <si>
-    <t>OrchestratorAssetFolder</t>
-  </si>
-  <si>
-    <t>OrchestratorQueueFolder</t>
-  </si>
-  <si>
-    <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
-  </si>
-  <si>
-    <t>MaxConsecutiveSystemExceptions</t>
-  </si>
-  <si>
-    <t>ExceptionMessage_ConsecutiveErrors</t>
-  </si>
-  <si>
-    <t>RetryNumberGetTransactionItem</t>
-  </si>
-  <si>
-    <t>RetryNumberSetTransactionStatus</t>
-  </si>
-  <si>
-    <t>Error message in case MaxConsecutiveSystemExceptions number is reached.</t>
-  </si>
-  <si>
-    <t>The number of times Get Transaction Item activity is retried in case of an exception. Must be an integer &gt;= 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of times Set transaction status activity is retried in case of an exception. Must be an integer &gt;= 1. </t>
-  </si>
-  <si>
-    <t>ShouldMarkJobAsFaulted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The number of consecutive system exceptions allowed. If MaxConsecutiveSystemExceptions is reached, the job is stopped. To disable this feature, set the value to 0. </t>
-  </si>
-  <si>
-    <t>Must be TRUE or FALSE. If the value is TRUE and an error occurs in Initialization state or the MaxConsecutiveSystemExceptions is reached, the job is marked as Faulted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
-  </si>
-  <si>
-    <t>ProcessABCQueue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logF_BusinessProcessName	</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>singhdarsh629@gmail.com</t>
+  </si>
+  <si>
+    <t>nkeweofqipqlbuuh</t>
+  </si>
+  <si>
+    <t>EmailPassword</t>
+  </si>
+  <si>
+    <t>ImapPort</t>
+  </si>
+  <si>
+    <t>SmtpPort</t>
+  </si>
+  <si>
+    <t>ImapServer</t>
+  </si>
+  <si>
+    <t>SmtpServer</t>
+  </si>
+  <si>
+    <t>imap.gmail.com</t>
+  </si>
+  <si>
+    <t>smtp.gmail.com</t>
+  </si>
+  <si>
+    <t>ClientMail</t>
+  </si>
+  <si>
+    <t>Khan.Firoz92n@outlook.com</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>IACET Client</t>
+  </si>
+  <si>
+    <t>MailFolder</t>
+  </si>
+  <si>
+    <t>TopMail</t>
+  </si>
+  <si>
+    <t>IACET</t>
+  </si>
+  <si>
+    <t>C:\Users\kdeve\OneDrive\Documents\UiPath\IACET\Data\IACET Attachement</t>
+  </si>
+  <si>
+    <t>AttachementFolderPath</t>
   </si>
 </sst>
 </file>
@@ -212,10 +264,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,14 +589,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5546875" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="78.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.44140625" customWidth="1"/>
     <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
@@ -585,47 +637,122 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.4">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -1673,18 +1800,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1708,7 +1835,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +1857,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -1741,7 +1868,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -1752,53 +1879,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2782,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2800,7 +2927,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/alexandra_veizu_uipath_com/Documents/Documents/Projects/REFrameworkNET5/StudioTemplates/REFramework/contentFiles/any/any/pt2/VisualBasic/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8C54E24-BA5C-4BF9-8DAB-2778512EC11B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77657F90-4F94-4115-84BA-36781487D766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -159,7 +159,25 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>ProcessABCQueue</t>
+    <t>Shared</t>
+  </si>
+  <si>
+    <t>IACET</t>
+  </si>
+  <si>
+    <t>Client_ID</t>
+  </si>
+  <si>
+    <t>khan.firoz92n@outlook.com</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Top_Email</t>
+  </si>
+  <si>
+    <t>MailRead_Folder</t>
   </si>
 </sst>
 </file>
@@ -211,15 +229,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,16 +558,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -588,23 +609,25 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="28.8">
+    <row r="5" spans="1:26" ht="30">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -616,13 +639,41 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5">
+        <v>30</v>
+      </c>
+    </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1623,12 +1674,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1665,7 +1716,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1727,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1790,7 +1841,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="28.8">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2782,14 +2833,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77657F90-4F94-4115-84BA-36781487D766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971B9DC-83B7-4BCE-80E8-41301A7FF6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -171,13 +171,19 @@
     <t>khan.firoz92n@outlook.com</t>
   </si>
   <si>
-    <t>Folder</t>
-  </si>
-  <si>
     <t>Top_Email</t>
   </si>
   <si>
     <t>MailRead_Folder</t>
+  </si>
+  <si>
+    <t>Mail_Folder</t>
+  </si>
+  <si>
+    <t>SaveEmail_FileFolder</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Save Email Attachment</t>
   </si>
 </sst>
 </file>
@@ -559,7 +565,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -650,7 +656,7 @@
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -659,23 +665,30 @@
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D971B9DC-83B7-4BCE-80E8-41301A7FF6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B5DE2E-D115-4BD1-9D41-FACA951CB057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -180,10 +180,28 @@
     <t>Mail_Folder</t>
   </si>
   <si>
-    <t>SaveEmail_FileFolder</t>
-  </si>
-  <si>
     <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Save Email Attachment</t>
+  </si>
+  <si>
+    <t>Save Email Attachment</t>
+  </si>
+  <si>
+    <t>IACET_Client_Details</t>
+  </si>
+  <si>
+    <t>IACET client Details[2305843009213758970].pdf</t>
+  </si>
+  <si>
+    <t>OutputFolder1</t>
+  </si>
+  <si>
+    <t>OutputFolder2</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\OutputFolder1</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\OutputFolder2</t>
   </si>
 </sst>
 </file>
@@ -564,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -683,29 +701,50 @@
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/IACET/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48F28985-A05C-4F4F-B1ED-EF49420EF464}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6514C99A-3DB6-4E01-A5CD-DA84A6AAD4C5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -189,6 +189,30 @@
   </si>
   <si>
     <t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\Temp\</t>
+  </si>
+  <si>
+    <t>Hi ABC,Greetings!No Attachment found</t>
+  </si>
+  <si>
+    <t>EmailTempNoPDF</t>
+  </si>
+  <si>
+    <t>EmailTempNoPDFSubj</t>
+  </si>
+  <si>
+    <t>No Attachment Found</t>
+  </si>
+  <si>
+    <t>smtp.gmail.com</t>
+  </si>
+  <si>
+    <t>PortSMTP</t>
+  </si>
+  <si>
+    <t>ServerSMTP</t>
+  </si>
+  <si>
+    <t>BusinessEmail</t>
   </si>
 </sst>
 </file>
@@ -272,6 +296,14 @@
 </file>
 
 <file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -575,7 +607,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -694,11 +726,43 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B5DE2E-D115-4BD1-9D41-FACA951CB057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96402E5-26B8-4C38-84BE-17D0ADF3717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,19 +189,19 @@
     <t>IACET_Client_Details</t>
   </si>
   <si>
-    <t>IACET client Details[2305843009213758970].pdf</t>
-  </si>
-  <si>
-    <t>OutputFolder1</t>
-  </si>
-  <si>
-    <t>OutputFolder2</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\OutputFolder1</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\OutputFolder2</t>
+    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Save Email Attachment\IACET client Details[2305843009213758970].pdf</t>
+  </si>
+  <si>
+    <t>ReadAble Folder</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\ReadAble Folder</t>
+  </si>
+  <si>
+    <t>UnReadAble Folder</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\UnReadAble Folder</t>
   </si>
 </sst>
 </file>
@@ -580,16 +580,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -709,26 +709,26 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1710,7 +1710,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96402E5-26B8-4C38-84BE-17D0ADF3717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E479B1-D75C-4F80-AD58-7986543B3471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E479B1-D75C-4F80-AD58-7986543B3471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79DACEE-B8F2-42BD-AFA1-D895778FD255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79DACEE-B8F2-42BD-AFA1-D895778FD255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839D007-A797-472C-A3E4-AC5CE2D7AC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -583,7 +583,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5839D007-A797-472C-A3E4-AC5CE2D7AC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F710F-4D5D-40A6-87C4-0EC319109E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\UnReadAble Folder</t>
+  </si>
+  <si>
+    <t>"C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\PDF Text.txt"</t>
+  </si>
+  <si>
+    <t>ReadText</t>
   </si>
 </sst>
 </file>
@@ -583,7 +589,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -731,7 +737,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/IACET/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6514C99A-3DB6-4E01-A5CD-DA84A6AAD4C5}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3517736-0C18-40EC-A2DE-ECD4148801BE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -213,6 +213,42 @@
   </si>
   <si>
     <t>BusinessEmail</t>
+  </si>
+  <si>
+    <t>PdfPath</t>
+  </si>
+  <si>
+    <t>https://www.countries-ofthe-world.com/capitals-of-the-world.html</t>
+  </si>
+  <si>
+    <t>Data\Temp\IACET Details.pdf</t>
+  </si>
+  <si>
+    <t>CapitalListURL</t>
+  </si>
+  <si>
+    <t>IACETDataFilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\IACET DATA.xlsx</t>
+  </si>
+  <si>
+    <t>PolicyDataFilePath</t>
+  </si>
+  <si>
+    <t>Data\Input\Policy Details.xlsx</t>
+  </si>
+  <si>
+    <t>ExcelDatabasePath</t>
+  </si>
+  <si>
+    <t>Data\Input\ExcelDatabase.xlsx</t>
+  </si>
+  <si>
+    <t>Data\Output\ExtractedPDFData.xlsx</t>
+  </si>
+  <si>
+    <t>ExtractedPDFDataPath</t>
   </si>
 </sst>
 </file>
@@ -304,6 +340,22 @@
 </file>
 
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -606,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -763,23 +815,65 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8F710F-4D5D-40A6-87C4-0EC319109E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDF93F5-C89E-421F-8B13-0E0226031415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Name</t>
   </si>
@@ -195,19 +195,25 @@
     <t>ReadAble Folder</t>
   </si>
   <si>
+    <t>UnReadAble Folder</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\UnReadAble Folder</t>
+  </si>
+  <si>
+    <t>"C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\PDF Text.txt"</t>
+  </si>
+  <si>
+    <t>ReadText</t>
+  </si>
+  <si>
+    <t>DataTable</t>
+  </si>
+  <si>
+    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\DataTable.xlsx</t>
+  </si>
+  <si>
     <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\ReadAble Folder</t>
-  </si>
-  <si>
-    <t>UnReadAble Folder</t>
-  </si>
-  <si>
-    <t>C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\UnReadAble Folder</t>
-  </si>
-  <si>
-    <t>"C:\Users\admin\AppData\Local\Programs\UiPath\Studio\IACET\Data\PDF Text.txt"</t>
-  </si>
-  <si>
-    <t>ReadText</t>
   </si>
 </sst>
 </file>
@@ -588,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -718,15 +724,15 @@
         <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
         <v>57</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
@@ -739,13 +745,20 @@
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="B19" t="s">
-        <v>59</v>
+      <c r="B20" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/IACET/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3517736-0C18-40EC-A2DE-ECD4148801BE}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{488DB51E-2F78-487C-AA86-8A7ED314B925}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>Name</t>
   </si>
@@ -194,12 +194,6 @@
     <t>Hi ABC,Greetings!No Attachment found</t>
   </si>
   <si>
-    <t>EmailTempNoPDF</t>
-  </si>
-  <si>
-    <t>EmailTempNoPDFSubj</t>
-  </si>
-  <si>
     <t>No Attachment Found</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>ServerSMTP</t>
   </si>
   <si>
-    <t>BusinessEmail</t>
-  </si>
-  <si>
     <t>PdfPath</t>
   </si>
   <si>
@@ -249,6 +240,36 @@
   </si>
   <si>
     <t>ExtractedPDFDataPath</t>
+  </si>
+  <si>
+    <t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\PDF Attachments</t>
+  </si>
+  <si>
+    <t>DownloadedPDFFolderPath</t>
+  </si>
+  <si>
+    <t>NoPdfEmailSubj</t>
+  </si>
+  <si>
+    <t>NoPdfEmailBody</t>
+  </si>
+  <si>
+    <t>InvalidPdfEmailBody</t>
+  </si>
+  <si>
+    <t>InvalidPdfEmailSubj</t>
+  </si>
+  <si>
+    <t>Invalid Attachment Found</t>
+  </si>
+  <si>
+    <t>Hi ABC,Greetings!Invalid Attachment found</t>
+  </si>
+  <si>
+    <t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\Email Tracking Report</t>
+  </si>
+  <si>
+    <t>EmailTrackingReportPath</t>
   </si>
 </sst>
 </file>
@@ -280,12 +301,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -310,6 +337,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,6 +367,14 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person10.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
@@ -356,6 +392,18 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person8.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person9.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -656,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -771,16 +819,16 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>55</v>
@@ -788,84 +836,108 @@
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+    <row r="13" spans="1:26" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>59</v>
+        <v>76</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14">
-        <v>587</v>
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
+    <row r="20" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B17" t="s">
-        <v>64</v>
+      <c r="B20" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="21" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>68</v>
       </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="22" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="23" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s">
-        <v>73</v>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1840,6 +1912,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/IACET/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{488DB51E-2F78-487C-AA86-8A7ED314B925}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{111A9446-2AB2-4447-B05C-17EC94D9245C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
   <si>
     <t>Name</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>EmailTrackingReportPath</t>
+  </si>
+  <si>
+    <t>PDFDetailsQueue</t>
   </si>
 </sst>
 </file>
@@ -372,6 +375,10 @@
 </file>
 
 <file path=xl/persons/person11.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -706,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -774,7 +781,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeve\OneDrive\Documents\UiPath\IACET\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C58BACD-ED0D-4BB4-9DD2-DCD61077CF11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA45C3-DFCD-47F9-B81D-BC835667ECDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -208,10 +208,28 @@
     <t>IACET</t>
   </si>
   <si>
+    <t>AttachementFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\kdeve\OneDrive\Documents\UiPath\IACET\Data\Split Pdf</t>
+  </si>
+  <si>
+    <t>SplitAttachementFolder</t>
+  </si>
+  <si>
+    <t>IacetName</t>
+  </si>
+  <si>
+    <t>IACET client Details[2305843009213758970].pdf</t>
+  </si>
+  <si>
     <t>C:\Users\kdeve\OneDrive\Documents\UiPath\IACET\Data\IACET Attachement</t>
   </si>
   <si>
-    <t>AttachementFolderPath</t>
+    <t>IACET Pdf Path</t>
+  </si>
+  <si>
+    <t>C:\Users\kdeve\OneDrive\Documents\UiPath\IACET\Data\IACET Attachement\IACET client Details[2305843009213758970].pdf</t>
   </si>
 </sst>
 </file>
@@ -590,7 +608,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -747,28 +765,49 @@
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a93f2051e428739e/Documents/UiPath/IACET/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{111A9446-2AB2-4447-B05C-17EC94D9245C}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7832BFB-D492-43CC-AFCF-5BB9B9B360B0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -164,9 +164,6 @@
     <t>GmailCredentials</t>
   </si>
   <si>
-    <t>PdfFolderPath</t>
-  </si>
-  <si>
     <t>IACET</t>
   </si>
   <si>
@@ -188,9 +185,6 @@
     <t>OrchestratorQueueName</t>
   </si>
   <si>
-    <t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\Temp\</t>
-  </si>
-  <si>
     <t>Hi ABC,Greetings!No Attachment found</t>
   </si>
   <si>
@@ -206,15 +200,9 @@
     <t>ServerSMTP</t>
   </si>
   <si>
-    <t>PdfPath</t>
-  </si>
-  <si>
     <t>https://www.countries-ofthe-world.com/capitals-of-the-world.html</t>
   </si>
   <si>
-    <t>Data\Temp\IACET Details.pdf</t>
-  </si>
-  <si>
     <t>CapitalListURL</t>
   </si>
   <si>
@@ -273,6 +261,12 @@
   </si>
   <si>
     <t>PDFDetailsQueue</t>
+  </si>
+  <si>
+    <t>RenamedPDFFolderPath</t>
+  </si>
+  <si>
+    <t>C:\Users\pushk\OneDrive\Documents\UiPath\IACET\Data\Renamed Attachments</t>
   </si>
 </sst>
 </file>
@@ -379,6 +373,18 @@
 </file>
 
 <file path=xl/persons/person12.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person13.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person14.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person15.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -711,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -761,10 +767,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -775,7 +781,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
@@ -783,10 +789,10 @@
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="29">
@@ -794,7 +800,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -805,7 +811,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -821,7 +827,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -829,129 +835,122 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>54</v>
+      <c r="A10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:26" s="5" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="5" customFormat="1" ht="14.25" customHeight="1">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" s="5" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="B15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>58</v>
-      </c>
-      <c r="B16">
-        <v>587</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>62</v>
+      <c r="B17" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
         <v>63</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="21" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="22" spans="1:2" s="5" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>70</v>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
@@ -1925,8 +1924,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1939,7 +1936,7 @@
   <dimension ref="A1:Z988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
